--- a/results/Preliminaries-Poland_without91.xlsx
+++ b/results/Preliminaries-Poland_without91.xlsx
@@ -57,58 +57,58 @@
     <t>2019</t>
   </si>
   <si>
-    <t>BBW</t>
-  </si>
-  <si>
-    <t>KPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN </t>
-  </si>
-  <si>
-    <t>PSL</t>
-  </si>
-  <si>
-    <t>SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP </t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>ROP</t>
-  </si>
-  <si>
-    <t>LPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO </t>
-  </si>
-  <si>
-    <t>PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP </t>
-  </si>
-  <si>
-    <t>.Mo</t>
-  </si>
-  <si>
-    <t>Kuk</t>
-  </si>
-  <si>
-    <t>OKO</t>
-  </si>
-  <si>
-    <t>PJK</t>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)</t>
+  </si>
+  <si>
+    <t>ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)</t>
   </si>
   <si>
     <t>Key</t>
@@ -141,1225 +141,1225 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>BBW+KPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN </t>
-  </si>
-  <si>
-    <t>BBW+PSL</t>
-  </si>
-  <si>
-    <t>BBW+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN </t>
-  </si>
-  <si>
-    <t>KPN+PSL</t>
-  </si>
-  <si>
-    <t>KPN+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+UP </t>
-  </si>
-  <si>
-    <t>MN +PSL</t>
-  </si>
-  <si>
-    <t>MN +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +UP </t>
-  </si>
-  <si>
-    <t>PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN </t>
-  </si>
-  <si>
-    <t>BBW+KPN+PSL</t>
-  </si>
-  <si>
-    <t>BBW+KPN+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+UP </t>
-  </si>
-  <si>
-    <t>BBW+MN +PSL</t>
-  </si>
-  <si>
-    <t>BBW+MN +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +UP </t>
-  </si>
-  <si>
-    <t>BBW+PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+UD +UP </t>
-  </si>
-  <si>
-    <t>KPN+MN +PSL</t>
-  </si>
-  <si>
-    <t>KPN+MN +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +UP </t>
-  </si>
-  <si>
-    <t>KPN+PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+UD +UP </t>
-  </si>
-  <si>
-    <t>MN +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLD+UD +UP </t>
-  </si>
-  <si>
-    <t>BBW+KPN+MN +PSL</t>
-  </si>
-  <si>
-    <t>BBW+KPN+MN +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +UP </t>
-  </si>
-  <si>
-    <t>BBW+KPN+PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+UD +UP </t>
-  </si>
-  <si>
-    <t>BBW+MN +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t>KPN+MN +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t>BBW+KPN+MN +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +PSL+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +PSL+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +PSL+SLD+UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +PSL+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+MN +PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN+MN +PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW+KPN+MN +PSL+SLD+UD +UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN </t>
-  </si>
-  <si>
-    <t>AWS+PSL</t>
-  </si>
-  <si>
-    <t>AWS+ROP</t>
-  </si>
-  <si>
-    <t>AWS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+UD </t>
-  </si>
-  <si>
-    <t>MN +ROP</t>
-  </si>
-  <si>
-    <t>PSL+ROP</t>
-  </si>
-  <si>
-    <t>ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROP+UD </t>
-  </si>
-  <si>
-    <t>AWS+MN +PSL</t>
-  </si>
-  <si>
-    <t>AWS+MN +ROP</t>
-  </si>
-  <si>
-    <t>AWS+MN +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +UD </t>
-  </si>
-  <si>
-    <t>AWS+PSL+ROP</t>
-  </si>
-  <si>
-    <t>AWS+PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+PSL+UD </t>
-  </si>
-  <si>
-    <t>AWS+ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+ROP+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+SLD+UD </t>
-  </si>
-  <si>
-    <t>MN +PSL+ROP</t>
-  </si>
-  <si>
-    <t>MN +ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +ROP+UD </t>
-  </si>
-  <si>
-    <t>PSL+ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+ROP+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t>AWS+MN +PSL+ROP</t>
-  </si>
-  <si>
-    <t>AWS+MN +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +PSL+UD </t>
-  </si>
-  <si>
-    <t>AWS+MN +ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +ROP+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +SLD+UD </t>
-  </si>
-  <si>
-    <t>AWS+PSL+ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+PSL+ROP+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t>MN +PSL+ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+ROP+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t>AWS+MN +PSL+ROP+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +PSL+ROP+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +PSL+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+PSL+ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS+MN +PSL+ROP+SLD+UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO </t>
-  </si>
-  <si>
-    <t>LPR+PSL</t>
-  </si>
-  <si>
-    <t>LPR+PiS</t>
-  </si>
-  <si>
-    <t>LPR+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO </t>
-  </si>
-  <si>
-    <t>MN +PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +SO </t>
-  </si>
-  <si>
-    <t>PO +PSL</t>
-  </si>
-  <si>
-    <t>PO +PiS</t>
-  </si>
-  <si>
-    <t>PO +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +SO </t>
-  </si>
-  <si>
-    <t>PSL+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+SO </t>
-  </si>
-  <si>
-    <t>PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PSL</t>
-  </si>
-  <si>
-    <t>LPR+MN +PiS</t>
-  </si>
-  <si>
-    <t>LPR+MN +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +SO </t>
-  </si>
-  <si>
-    <t>LPR+PO +PSL</t>
-  </si>
-  <si>
-    <t>LPR+PO +PiS</t>
-  </si>
-  <si>
-    <t>LPR+PO +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +SO </t>
-  </si>
-  <si>
-    <t>LPR+PSL+PiS</t>
-  </si>
-  <si>
-    <t>LPR+PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PSL+SO </t>
-  </si>
-  <si>
-    <t>LPR+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+SLD+SO </t>
-  </si>
-  <si>
-    <t>MN +PO +PSL</t>
-  </si>
-  <si>
-    <t>MN +PO +PiS</t>
-  </si>
-  <si>
-    <t>MN +PO +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +SO </t>
-  </si>
-  <si>
-    <t>MN +PSL+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+SO </t>
-  </si>
-  <si>
-    <t>MN +PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +SLD+SO </t>
-  </si>
-  <si>
-    <t>PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>PO +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PSL+SO </t>
-  </si>
-  <si>
-    <t>PO +PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +SLD+SO </t>
-  </si>
-  <si>
-    <t>PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +PSL</t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +PiS</t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PSL+PiS</t>
-  </si>
-  <si>
-    <t>LPR+MN +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PSL+SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>LPR+PO +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +PSL+SO </t>
-  </si>
-  <si>
-    <t>LPR+PO +PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>MN +PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>MN +PO +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PSL+SO </t>
-  </si>
-  <si>
-    <t>MN +PO +PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +SLD+SO </t>
-  </si>
-  <si>
-    <t>MN +PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>PO +PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +PSL+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +PSL+SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+PO +PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>MN +PO +PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t>LPR+MN +PO +PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +PSL+PiS+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +PSL+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+PO +PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR+MN +PO +PSL+PiS+SLD+SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PiS+RP </t>
-  </si>
-  <si>
-    <t>RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PiS+RP </t>
-  </si>
-  <si>
-    <t>MN +RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PSL+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PiS+RP </t>
-  </si>
-  <si>
-    <t>PO +RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSL+PiS+RP </t>
-  </si>
-  <si>
-    <t>PSL+RP +SLD</t>
-  </si>
-  <si>
-    <t>PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PSL+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PiS+RP </t>
-  </si>
-  <si>
-    <t>MN +PO +RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PSL+PiS+RP </t>
-  </si>
-  <si>
-    <t>MN +PSL+RP +SLD</t>
-  </si>
-  <si>
-    <t>MN +PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO +PSL+PiS+RP </t>
-  </si>
-  <si>
-    <t>PO +PSL+RP +SLD</t>
-  </si>
-  <si>
-    <t>PO +PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t>PSL+PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN +PO +PSL+PiS+RP </t>
-  </si>
-  <si>
-    <t>MN +PO +PSL+RP +SLD</t>
-  </si>
-  <si>
-    <t>MN +PO +PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t>MN +PSL+PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t>PO +PSL+PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t>MN +PO +PSL+PiS+RP +SLD</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Mo+MN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Mo+PO </t>
-  </si>
-  <si>
-    <t>.Mo+PSL</t>
-  </si>
-  <si>
-    <t>.Mo+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuk+MN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuk+PO </t>
-  </si>
-  <si>
-    <t>Kuk+PSL</t>
-  </si>
-  <si>
-    <t>Kuk+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Mo+Kuk+MN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Mo+Kuk+PO </t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+PSL</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Mo+MN +PO </t>
-  </si>
-  <si>
-    <t>.Mo+MN +PSL</t>
-  </si>
-  <si>
-    <t>.Mo+MN +PiS</t>
-  </si>
-  <si>
-    <t>.Mo+PO +PSL</t>
-  </si>
-  <si>
-    <t>.Mo+PO +PiS</t>
-  </si>
-  <si>
-    <t>.Mo+PSL+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuk+MN +PO </t>
-  </si>
-  <si>
-    <t>Kuk+MN +PSL</t>
-  </si>
-  <si>
-    <t>Kuk+MN +PiS</t>
-  </si>
-  <si>
-    <t>Kuk+PO +PSL</t>
-  </si>
-  <si>
-    <t>Kuk+PO +PiS</t>
-  </si>
-  <si>
-    <t>Kuk+PSL+PiS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.Mo+Kuk+MN +PO </t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+MN +PSL</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+MN +PiS</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+PO +PSL</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+PO +PiS</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+PSL+PiS</t>
-  </si>
-  <si>
-    <t>.Mo+MN +PO +PSL</t>
-  </si>
-  <si>
-    <t>.Mo+MN +PO +PiS</t>
-  </si>
-  <si>
-    <t>.Mo+MN +PSL+PiS</t>
-  </si>
-  <si>
-    <t>.Mo+PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>Kuk+MN +PO +PSL</t>
-  </si>
-  <si>
-    <t>Kuk+MN +PO +PiS</t>
-  </si>
-  <si>
-    <t>Kuk+MN +PSL+PiS</t>
-  </si>
-  <si>
-    <t>Kuk+PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+MN +PO +PSL</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+MN +PO +PiS</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+MN +PSL+PiS</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>.Mo+MN +PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>Kuk+MN +PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>.Mo+Kuk+MN +PO +PSL+PiS</t>
-  </si>
-  <si>
-    <t>MN +OKO</t>
-  </si>
-  <si>
-    <t>MN +PJK</t>
-  </si>
-  <si>
-    <t>OKO+PJK</t>
-  </si>
-  <si>
-    <t>OKO+PSL</t>
-  </si>
-  <si>
-    <t>OKO+PiS</t>
-  </si>
-  <si>
-    <t>OKO+SLD</t>
-  </si>
-  <si>
-    <t>PJK+PSL</t>
-  </si>
-  <si>
-    <t>PJK+PiS</t>
-  </si>
-  <si>
-    <t>PJK+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK</t>
-  </si>
-  <si>
-    <t>MN +OKO+PSL</t>
-  </si>
-  <si>
-    <t>MN +OKO+PiS</t>
-  </si>
-  <si>
-    <t>MN +OKO+SLD</t>
-  </si>
-  <si>
-    <t>MN +PJK+PSL</t>
-  </si>
-  <si>
-    <t>MN +PJK+PiS</t>
-  </si>
-  <si>
-    <t>MN +PJK+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PJK+PSL</t>
-  </si>
-  <si>
-    <t>OKO+PJK+PiS</t>
-  </si>
-  <si>
-    <t>OKO+PJK+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PSL+PiS</t>
-  </si>
-  <si>
-    <t>OKO+PSL+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PiS+SLD</t>
-  </si>
-  <si>
-    <t>PJK+PSL+PiS</t>
-  </si>
-  <si>
-    <t>PJK+PSL+SLD</t>
-  </si>
-  <si>
-    <t>PJK+PiS+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+PSL</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+PiS</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PSL+PiS</t>
-  </si>
-  <si>
-    <t>MN +OKO+PSL+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PiS+SLD</t>
-  </si>
-  <si>
-    <t>MN +PJK+PSL+PiS</t>
-  </si>
-  <si>
-    <t>MN +PJK+PSL+SLD</t>
-  </si>
-  <si>
-    <t>MN +PJK+PiS+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PJK+PSL+PiS</t>
-  </si>
-  <si>
-    <t>OKO+PJK+PSL+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PJK+PiS+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t>PJK+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+PSL+PiS</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+PSL+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+PiS+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t>MN +PJK+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t>OKO+PJK+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t>MN +OKO+PJK+PSL+PiS+SLD</t>
-  </si>
-  <si>
-    <t>('AWS+MN +PSL', 'ROP+SLD+UD ')</t>
-  </si>
-  <si>
-    <t>('ROP+SLD+UD ', 'AWS+MN +PSL')</t>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>BBWR - Non-Party Bloc in Support of Reforms (Bezpartyjny Blok Wspierania Reform, BBWR)+KPN - Confederation for an Independent Poland (Konfederacja Polski Niepodleglej, KPN)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)+UP - Labour Union (Unia Pracy, UP)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>LPR - League of Polish Families (Liga Polskich Rodzin, LPR)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+SO - Self-Defence of the Republic of Poland (Samoobrona) (Samoobrona Rzeczypospolitej Polskiej, SO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+RP - Palikot's Movement (Ruch Palikota, RP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>.Modern - Electoral Committee of the Modern Ryszard Petru (Komitet Wyborczy Nowoczesna Ryszarda Petru, .Modern)+Kukiz15 - Electoral Committee of Voters Kukiz'15 (Komitet Wyborczy Wyborców "Kukiz'15", Kukiz15)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PO - Civic Platform (Platforma Obywatelska, PO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>MN - Germany Minority (Mniejszość Niemiecka, MN)+OKO - All-Polish Civic Coalition  (OgólnoPolska Koalicja Obywatelska, OKO)+PJKM - Janusz Korwin-Mikke Platform (Platforma Janusza Korwin-Mikke, PJKM)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)+PiS - Law and Justice (Prawo i Sprawiedliwość, PiS)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)</t>
+  </si>
+  <si>
+    <t>('AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)', 'ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)')</t>
+  </si>
+  <si>
+    <t>('ROP - Movement for the Rebirth of Poland (Ruch Odrodzenia Polski, ROP)+SLD - Alliance of Democratic Left (Sojusz Lewicy Demokratycznej, SLD)+UD - Democratic Union (Unia Demokratyczna, UD)', 'AWS - Electoral Action Solidarity (Akcja Wyborcza Solidarność, AWS)+MN - Germany Minority (Mniejszość Niemiecka, MN)+PSL - Polish Peasant Party (Polskie Stronnictwo Ludowe, PSL)')</t>
   </si>
 </sst>
 </file>
